--- a/整合资源/E-R实体/类.xlsx
+++ b/整合资源/E-R实体/类.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="96" windowWidth="22056" windowHeight="9396"/>
+    <workbookView xWindow="480" yWindow="156" windowWidth="22056" windowHeight="9336"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t xml:space="preserve"> 英文名</t>
   </si>
@@ -39,22 +39,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>username</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>account</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>phoneNum</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -175,6 +163,102 @@
   </si>
   <si>
     <t>禁止长期非法行为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户昵称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seekedGoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seekingGoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collectedGoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldGoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auditedGoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>focusedUser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldoutGoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>associationGoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>useraccount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPassword</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +623,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -573,10 +657,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -584,7 +671,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -595,10 +685,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,10 +699,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,10 +713,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -628,10 +727,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -639,10 +741,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -650,13 +755,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -664,120 +769,153 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
       <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -792,10 +930,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -815,33 +956,42 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
       <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
